--- a/data/trans_orig/P6605-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6605-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0753095F-CBDD-48B4-A43A-C51FEA7515FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D12C01B1-E9CB-418B-A48D-454E587CDB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{40F71A40-DBAF-49FD-816A-9910C80A7A1D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE46F630-8EAA-4D5E-A5A0-2A939A52E91D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="769">
   <si>
     <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -77,2239 +77,2275 @@
     <t>12,09%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>24,06%</t>
   </si>
   <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2015 (Tasa respuesta: 35,38%)</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2015 (Tasa respuesta: 35,38%)</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>13,21%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
 </sst>
 </file>
@@ -2721,7 +2757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B16230-2817-48F4-8B3F-51275D223F95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D839581-EEE5-405E-90F2-CB9F44B3AE95}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3171,10 +3207,10 @@
         <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -3183,13 +3219,13 @@
         <v>138718</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3240,13 @@
         <v>101901</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
@@ -3219,13 +3255,13 @@
         <v>36402</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>135</v>
@@ -3234,13 +3270,13 @@
         <v>138303</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3291,13 @@
         <v>63420</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -3270,13 +3306,13 @@
         <v>16689</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>77</v>
@@ -3285,13 +3321,13 @@
         <v>80109</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,7 +3383,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3359,13 +3395,13 @@
         <v>125549</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -3374,13 +3410,13 @@
         <v>72940</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>177</v>
@@ -3389,13 +3425,13 @@
         <v>198489</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3446,13 @@
         <v>135444</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>59</v>
@@ -3425,13 +3461,13 @@
         <v>64711</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>179</v>
@@ -3440,13 +3476,13 @@
         <v>200156</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3497,13 @@
         <v>145099</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3476,13 +3512,13 @@
         <v>71674</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>204</v>
@@ -3491,13 +3527,13 @@
         <v>216773</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3548,13 @@
         <v>151689</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -3527,13 +3563,13 @@
         <v>58401</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -3542,13 +3578,13 @@
         <v>210089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,7 +3640,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3616,13 +3652,13 @@
         <v>151742</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>96</v>
@@ -3631,13 +3667,13 @@
         <v>93050</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>235</v>
@@ -3646,13 +3682,13 @@
         <v>244792</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3703,13 @@
         <v>75816</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -3682,13 +3718,13 @@
         <v>38696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -3697,13 +3733,13 @@
         <v>114512</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3754,13 @@
         <v>82530</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -3733,13 +3769,13 @@
         <v>46808</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>122</v>
@@ -3748,13 +3784,13 @@
         <v>129337</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3805,13 @@
         <v>96367</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -3784,13 +3820,13 @@
         <v>33460</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -3799,13 +3835,13 @@
         <v>129827</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,7 +3897,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3873,13 +3909,13 @@
         <v>166584</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>107</v>
@@ -3888,13 +3924,13 @@
         <v>112826</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>284</v>
@@ -3903,13 +3939,13 @@
         <v>279411</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3960,13 @@
         <v>119372</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -3939,13 +3975,13 @@
         <v>87446</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>205</v>
@@ -3954,13 +3990,13 @@
         <v>206817</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +4011,13 @@
         <v>152629</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -3990,13 +4026,13 @@
         <v>113511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>259</v>
@@ -4005,13 +4041,13 @@
         <v>266139</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4062,13 @@
         <v>114910</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H27" s="7">
         <v>71</v>
@@ -4041,13 +4077,13 @@
         <v>73312</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>190</v>
@@ -4056,13 +4092,13 @@
         <v>188223</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4166,13 @@
         <v>520264</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>307</v>
@@ -4145,13 +4181,13 @@
         <v>316644</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>806</v>
@@ -4160,13 +4196,13 @@
         <v>836908</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4217,13 @@
         <v>437149</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>233</v>
@@ -4196,13 +4232,13 @@
         <v>245945</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>650</v>
@@ -4211,13 +4247,13 @@
         <v>683094</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4268,13 @@
         <v>502159</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H31" s="7">
         <v>258</v>
@@ -4247,13 +4283,13 @@
         <v>272875</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="M31" s="7">
         <v>743</v>
@@ -4262,13 +4298,13 @@
         <v>775034</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4319,13 @@
         <v>442308</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>181</v>
@@ -4298,13 +4334,13 @@
         <v>187876</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="M32" s="7">
         <v>601</v>
@@ -4313,13 +4349,13 @@
         <v>630184</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,7 +4411,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96BA3D6-C26C-4235-8CCF-314BF4DC8C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6F8E91-47DA-417B-8AEF-6917CE4164AD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4413,7 +4449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4520,13 +4556,13 @@
         <v>11661</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4535,13 +4571,13 @@
         <v>6775</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4550,13 +4586,13 @@
         <v>18436</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4607,13 @@
         <v>8882</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4586,13 +4622,13 @@
         <v>6842</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4601,13 +4637,13 @@
         <v>15724</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4658,13 @@
         <v>13283</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4640,10 +4676,10 @@
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -4652,13 +4688,13 @@
         <v>16329</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4709,13 @@
         <v>17907</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4688,13 +4724,13 @@
         <v>8524</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -4703,13 +4739,13 @@
         <v>26430</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4813,13 @@
         <v>44183</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -4792,13 +4828,13 @@
         <v>29331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -4807,13 +4843,13 @@
         <v>73515</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4864,13 @@
         <v>52626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -4843,13 +4879,13 @@
         <v>43787</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -4858,13 +4894,13 @@
         <v>96413</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4915,13 @@
         <v>75007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -4894,13 +4930,13 @@
         <v>43838</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>112</v>
@@ -4909,13 +4945,13 @@
         <v>118845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,13 +4966,13 @@
         <v>45388</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -4945,13 +4981,13 @@
         <v>19133</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>86</v>
+        <v>285</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>186</v>
+        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>63</v>
@@ -4960,13 +4996,13 @@
         <v>64520</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,7 +5058,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5034,13 +5070,13 @@
         <v>88343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -5049,13 +5085,13 @@
         <v>70581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -5064,13 +5100,13 @@
         <v>158924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5121,13 @@
         <v>101666</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="H15" s="7">
         <v>70</v>
@@ -5100,13 +5136,13 @@
         <v>74084</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>177</v>
+        <v>298</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M15" s="7">
         <v>162</v>
@@ -5115,13 +5151,13 @@
         <v>175750</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>301</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5172,13 @@
         <v>122662</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -5151,13 +5187,13 @@
         <v>71522</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>180</v>
@@ -5166,13 +5202,13 @@
         <v>194183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5223,13 @@
         <v>96037</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5202,13 +5238,13 @@
         <v>54402</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
         <v>138</v>
@@ -5217,13 +5253,13 @@
         <v>150439</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,7 +5315,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5291,13 +5327,13 @@
         <v>73699</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -5306,13 +5342,13 @@
         <v>56989</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -5321,13 +5357,13 @@
         <v>130687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5378,13 @@
         <v>79493</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5357,13 +5393,13 @@
         <v>48356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -5372,13 +5408,13 @@
         <v>127849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>264</v>
+        <v>337</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5429,13 @@
         <v>102692</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H21" s="7">
         <v>47</v>
@@ -5408,13 +5444,13 @@
         <v>53274</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M21" s="7">
         <v>138</v>
@@ -5423,13 +5459,13 @@
         <v>155966</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5480,13 @@
         <v>63496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -5459,13 +5495,13 @@
         <v>55723</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -5474,13 +5510,13 @@
         <v>119219</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,7 +5572,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5548,13 +5584,13 @@
         <v>109045</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>358</v>
+        <v>67</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>356</v>
       </c>
       <c r="H24" s="7">
         <v>82</v>
@@ -5563,13 +5599,13 @@
         <v>86834</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>360</v>
+        <v>99</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>361</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M24" s="7">
         <v>186</v>
@@ -5578,13 +5614,13 @@
         <v>195880</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>364</v>
+        <v>103</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,13 +5635,13 @@
         <v>106624</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>366</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>208</v>
+        <v>360</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5614,13 +5650,13 @@
         <v>80101</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -5629,13 +5665,13 @@
         <v>186724</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5686,13 @@
         <v>109834</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>374</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -5665,13 +5701,13 @@
         <v>62039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -5680,13 +5716,13 @@
         <v>171874</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>317</v>
+        <v>374</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5737,13 @@
         <v>91376</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>160</v>
+        <v>376</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>381</v>
+        <v>211</v>
       </c>
       <c r="H27" s="7">
         <v>72</v>
@@ -5716,13 +5752,13 @@
         <v>72529</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M27" s="7">
         <v>156</v>
@@ -5731,13 +5767,13 @@
         <v>163904</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>384</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>164</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5841,13 @@
         <v>326932</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H29" s="7">
         <v>227</v>
@@ -5820,13 +5856,13 @@
         <v>250510</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M29" s="7">
         <v>527</v>
@@ -5835,13 +5871,13 @@
         <v>577443</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5892,13 @@
         <v>349291</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>177</v>
+        <v>391</v>
       </c>
       <c r="H30" s="7">
         <v>237</v>
@@ -5871,13 +5907,13 @@
         <v>253169</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>396</v>
+        <v>163</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M30" s="7">
         <v>568</v>
@@ -5886,13 +5922,13 @@
         <v>602460</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>399</v>
+        <v>320</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5943,13 @@
         <v>423478</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>402</v>
+        <v>102</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="H31" s="7">
         <v>213</v>
@@ -5922,13 +5958,13 @@
         <v>233719</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M31" s="7">
         <v>615</v>
@@ -5937,13 +5973,13 @@
         <v>657196</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>71</v>
+        <v>402</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5994,13 @@
         <v>314204</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H32" s="7">
         <v>198</v>
@@ -5973,13 +6009,13 @@
         <v>210310</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>108</v>
+        <v>407</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M32" s="7">
         <v>492</v>
@@ -5988,13 +6024,13 @@
         <v>524513</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>179</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,7 +6086,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6071,7 +6107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89644437-FA47-41D8-940C-13904E55C794}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5CDE63-C61F-49A0-AB66-081D060F08C5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6088,7 +6124,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6195,13 +6231,13 @@
         <v>7102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>243</v>
+        <v>415</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -6210,13 +6246,13 @@
         <v>11066</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -6225,13 +6261,13 @@
         <v>18168</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,10 +6297,10 @@
         <v>5039</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>427</v>
@@ -6276,10 +6312,10 @@
         <v>21253</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>429</v>
@@ -6354,7 +6390,7 @@
         <v>440</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>441</v>
+        <v>358</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6363,13 +6399,13 @@
         <v>4631</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -6378,13 +6414,13 @@
         <v>10208</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6488,13 @@
         <v>59853</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -6467,13 +6503,13 @@
         <v>47012</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M9" s="7">
         <v>105</v>
@@ -6482,13 +6518,13 @@
         <v>106865</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6539,13 @@
         <v>50276</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -6521,10 +6557,10 @@
         <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="M10" s="7">
         <v>84</v>
@@ -6533,13 +6569,13 @@
         <v>84037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>461</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>462</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6590,13 @@
         <v>54589</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>461</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -6569,13 +6605,13 @@
         <v>26348</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>467</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>81</v>
@@ -6584,13 +6620,13 @@
         <v>80936</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6641,13 @@
         <v>34551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>207</v>
+        <v>469</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -6620,13 +6656,13 @@
         <v>30357</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M12" s="7">
         <v>60</v>
@@ -6635,13 +6671,13 @@
         <v>64908</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>473</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,7 +6733,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6709,13 +6745,13 @@
         <v>132117</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -6724,10 +6760,10 @@
         <v>92066</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>478</v>
@@ -6766,7 +6802,7 @@
         <v>483</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>215</v>
+        <v>484</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -6775,13 +6811,13 @@
         <v>73636</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>170</v>
+        <v>485</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>147</v>
+        <v>486</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M15" s="7">
         <v>162</v>
@@ -6790,13 +6826,13 @@
         <v>171354</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>280</v>
+        <v>489</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,13 +6847,13 @@
         <v>110940</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -6826,13 +6862,13 @@
         <v>61056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -6841,13 +6877,13 @@
         <v>171996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,13 +6898,13 @@
         <v>69633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>497</v>
+        <v>136</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -6877,13 +6913,13 @@
         <v>46032</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>501</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -6892,13 +6928,13 @@
         <v>115665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>502</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,7 +6990,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6966,13 +7002,13 @@
         <v>68022</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -6981,13 +7017,13 @@
         <v>63734</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>511</v>
       </c>
       <c r="M19" s="7">
         <v>125</v>
@@ -6996,13 +7032,13 @@
         <v>131757</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>510</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>511</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,13 +7068,13 @@
         <v>79992</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>515</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>517</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -7047,13 +7083,13 @@
         <v>182708</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>519</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,13 +7104,13 @@
         <v>96370</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H21" s="7">
         <v>70</v>
@@ -7083,13 +7119,13 @@
         <v>72032</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M21" s="7">
         <v>157</v>
@@ -7098,13 +7134,13 @@
         <v>168403</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>522</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7155,13 @@
         <v>95596</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -7134,13 +7170,13 @@
         <v>54799</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>528</v>
+        <v>441</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M22" s="7">
         <v>138</v>
@@ -7149,13 +7185,13 @@
         <v>150395</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>532</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,7 +7247,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7223,13 +7259,13 @@
         <v>144155</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H24" s="7">
         <v>119</v>
@@ -7238,13 +7274,13 @@
         <v>127077</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="M24" s="7">
         <v>259</v>
@@ -7253,13 +7289,13 @@
         <v>271232</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7274,13 +7310,13 @@
         <v>81638</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>182</v>
+        <v>546</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -7289,13 +7325,13 @@
         <v>68288</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>373</v>
+        <v>548</v>
       </c>
       <c r="M25" s="7">
         <v>144</v>
@@ -7304,13 +7340,13 @@
         <v>149926</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>545</v>
+        <v>325</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7361,13 @@
         <v>107796</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -7340,13 +7376,13 @@
         <v>58926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>552</v>
+        <v>85</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -7355,13 +7391,13 @@
         <v>166722</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>555</v>
+        <v>337</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>556</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,7 +7418,7 @@
         <v>558</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>559</v>
+        <v>437</v>
       </c>
       <c r="H27" s="7">
         <v>63</v>
@@ -7391,13 +7427,13 @@
         <v>69180</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="M27" s="7">
         <v>126</v>
@@ -7406,13 +7442,13 @@
         <v>133865</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7516,13 @@
         <v>411250</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>565</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="H29" s="7">
         <v>334</v>
@@ -7495,13 +7531,13 @@
         <v>340955</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>567</v>
+        <v>443</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>568</v>
+        <v>66</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>569</v>
+        <v>130</v>
       </c>
       <c r="M29" s="7">
         <v>716</v>
@@ -7510,13 +7546,13 @@
         <v>752206</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,13 +7567,13 @@
         <v>348562</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>412</v>
+        <v>568</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>490</v>
+        <v>569</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H30" s="7">
         <v>256</v>
@@ -7546,13 +7582,13 @@
         <v>260717</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>167</v>
+        <v>409</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M30" s="7">
         <v>582</v>
@@ -7561,13 +7597,13 @@
         <v>609279</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,13 +7618,13 @@
         <v>382608</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>55</v>
+        <v>576</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H31" s="7">
         <v>227</v>
@@ -7597,13 +7633,13 @@
         <v>227517</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M31" s="7">
         <v>587</v>
@@ -7612,13 +7648,13 @@
         <v>610125</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>386</v>
+        <v>581</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,13 +7669,13 @@
         <v>270042</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>84</v>
+        <v>583</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H32" s="7">
         <v>193</v>
@@ -7648,13 +7684,13 @@
         <v>204999</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>175</v>
+        <v>588</v>
       </c>
       <c r="M32" s="7">
         <v>439</v>
@@ -7663,13 +7699,13 @@
         <v>475041</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>159</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7725,7 +7761,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -7746,7 +7782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CBA8B4-00AE-462C-A475-9319BEB379FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1DA117-96A0-43E6-B0C1-DA8B38E10843}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7763,7 +7799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7870,13 +7906,13 @@
         <v>4566</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>589</v>
+        <v>350</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -7885,13 +7921,13 @@
         <v>2455</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>354</v>
+        <v>596</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -7900,13 +7936,13 @@
         <v>7021</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>518</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,13 +7957,13 @@
         <v>2712</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -7936,13 +7972,13 @@
         <v>4883</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -7951,13 +7987,13 @@
         <v>7595</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +8008,13 @@
         <v>15038</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -7987,13 +8023,13 @@
         <v>6956</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="M6" s="7">
         <v>21</v>
@@ -8002,13 +8038,13 @@
         <v>21994</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8059,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -8038,13 +8074,13 @@
         <v>2556</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -8053,13 +8089,13 @@
         <v>2556</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>117</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,13 +8163,13 @@
         <v>33413</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -8142,13 +8178,13 @@
         <v>21143</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -8157,13 +8193,13 @@
         <v>54556</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>625</v>
+        <v>507</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>216</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +8214,13 @@
         <v>44999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>626</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>631</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -8193,13 +8229,13 @@
         <v>38164</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -8208,13 +8244,13 @@
         <v>83163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>631</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,13 +8265,13 @@
         <v>38328</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>638</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -8244,13 +8280,13 @@
         <v>31500</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>636</v>
+        <v>260</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>451</v>
+        <v>641</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -8259,13 +8295,13 @@
         <v>69828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>444</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8280,13 +8316,13 @@
         <v>35748</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>117</v>
+        <v>645</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -8295,13 +8331,13 @@
         <v>26171</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -8310,13 +8346,13 @@
         <v>61919</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8372,7 +8408,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8384,13 +8420,13 @@
         <v>129233</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>655</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -8402,10 +8438,10 @@
         <v>482</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>650</v>
+        <v>431</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>626</v>
+        <v>657</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
@@ -8414,13 +8450,13 @@
         <v>182559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8435,13 +8471,13 @@
         <v>78883</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="H15" s="7">
         <v>103</v>
@@ -8450,13 +8486,13 @@
         <v>74511</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>92</v>
+        <v>665</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="M15" s="7">
         <v>181</v>
@@ -8465,13 +8501,13 @@
         <v>153394</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>67</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8486,13 +8522,13 @@
         <v>118094</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -8501,13 +8537,13 @@
         <v>60173</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="M16" s="7">
         <v>188</v>
@@ -8516,13 +8552,13 @@
         <v>178267</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>675</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8537,13 +8573,13 @@
         <v>40399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>667</v>
+        <v>150</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -8552,13 +8588,13 @@
         <v>35920</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -8567,13 +8603,13 @@
         <v>76319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8629,7 +8665,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8641,13 +8677,13 @@
         <v>52677</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -8656,13 +8692,13 @@
         <v>50693</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -8671,13 +8707,13 @@
         <v>103369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>546</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8692,13 +8728,13 @@
         <v>64401</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>685</v>
+        <v>274</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -8707,13 +8743,13 @@
         <v>44503</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>494</v>
+        <v>696</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -8722,13 +8758,13 @@
         <v>108905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>690</v>
+        <v>197</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8743,13 +8779,13 @@
         <v>33302</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>692</v>
+        <v>343</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>324</v>
+        <v>701</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -8758,13 +8794,13 @@
         <v>23714</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>696</v>
+        <v>461</v>
       </c>
       <c r="M21" s="7">
         <v>68</v>
@@ -8773,13 +8809,13 @@
         <v>57017</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>697</v>
+        <v>584</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>439</v>
+        <v>704</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8794,13 +8830,13 @@
         <v>27642</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>351</v>
+        <v>706</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>708</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -8809,13 +8845,13 @@
         <v>35672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>80</v>
+        <v>709</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>700</v>
+        <v>538</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -8824,13 +8860,13 @@
         <v>63313</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>703</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8886,7 +8922,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8898,13 +8934,13 @@
         <v>88507</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>521</v>
+        <v>713</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="H24" s="7">
         <v>104</v>
@@ -8913,13 +8949,13 @@
         <v>76194</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>706</v>
+        <v>341</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="M24" s="7">
         <v>192</v>
@@ -8928,13 +8964,13 @@
         <v>164701</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8949,13 +8985,13 @@
         <v>55543</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -8964,13 +9000,13 @@
         <v>52761</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>96</v>
+        <v>722</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -8979,13 +9015,13 @@
         <v>108304</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>716</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9000,13 +9036,13 @@
         <v>61328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="H26" s="7">
         <v>61</v>
@@ -9015,13 +9051,13 @@
         <v>44929</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>720</v>
+        <v>569</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>722</v>
+        <v>477</v>
       </c>
       <c r="M26" s="7">
         <v>122</v>
@@ -9030,13 +9066,13 @@
         <v>106257</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>723</v>
+        <v>472</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>598</v>
+        <v>730</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9051,13 +9087,13 @@
         <v>29583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>558</v>
+        <v>731</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>48</v>
+        <v>652</v>
       </c>
       <c r="H27" s="7">
         <v>38</v>
@@ -9066,13 +9102,13 @@
         <v>27036</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="M27" s="7">
         <v>66</v>
@@ -9081,13 +9117,13 @@
         <v>56620</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>729</v>
+        <v>558</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>148</v>
+        <v>737</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9155,13 +9191,13 @@
         <v>308396</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>65</v>
+        <v>739</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="H29" s="7">
         <v>269</v>
@@ -9170,13 +9206,13 @@
         <v>203810</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>399</v>
+        <v>742</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="M29" s="7">
         <v>501</v>
@@ -9185,13 +9221,13 @@
         <v>512206</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>735</v>
+        <v>460</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9206,13 +9242,13 @@
         <v>246537</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>520</v>
+        <v>747</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="H30" s="7">
         <v>307</v>
@@ -9221,13 +9257,13 @@
         <v>214822</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>92</v>
+        <v>749</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="M30" s="7">
         <v>536</v>
@@ -9236,13 +9272,13 @@
         <v>461359</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>391</v>
+        <v>752</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>742</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9257,13 +9293,13 @@
         <v>266089</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="H31" s="7">
         <v>237</v>
@@ -9272,13 +9308,13 @@
         <v>167274</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>581</v>
+        <v>354</v>
       </c>
       <c r="M31" s="7">
         <v>495</v>
@@ -9287,13 +9323,13 @@
         <v>433363</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>61</v>
+        <v>759</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9308,13 +9344,13 @@
         <v>133372</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="H32" s="7">
         <v>148</v>
@@ -9323,13 +9359,13 @@
         <v>127355</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="M32" s="7">
         <v>261</v>
@@ -9338,13 +9374,13 @@
         <v>260727</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>329</v>
+        <v>768</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9400,7 +9436,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6605-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6605-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D12C01B1-E9CB-418B-A48D-454E587CDB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF5BAE3E-577F-4E2B-B20D-4A3D388E7952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE46F630-8EAA-4D5E-A5A0-2A939A52E91D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDCDDAA8-D132-4A13-AC0F-EADA60EF6188}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -77,28 +77,28 @@
     <t>12,09%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,28 +107,28 @@
     <t>24,81%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>35,8%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
   </si>
   <si>
     <t>28,11%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -137,28 +137,28 @@
     <t>35,14%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
   </si>
   <si>
     <t>30,07%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -167,2158 +167,2158 @@
     <t>27,97%</t>
   </si>
   <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>17,93%</t>
   </si>
   <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
   </si>
   <si>
     <t>37,92%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2015 (Tasa respuesta: 35,38%)</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
     <t>23,17%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
   </si>
   <si>
     <t>13,97%</t>
@@ -2757,7 +2757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D839581-EEE5-405E-90F2-CB9F44B3AE95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D66FD18-C3A4-4C31-8465-EF9CD932DCB6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3156,10 +3156,10 @@
         <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>98</v>
@@ -3168,13 +3168,13 @@
         <v>102105</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3189,13 @@
         <v>92394</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3204,10 +3204,10 @@
         <v>46323</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>65</v>
@@ -3425,13 +3425,13 @@
         <v>198489</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3446,13 @@
         <v>135444</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>59</v>
@@ -3461,13 +3461,13 @@
         <v>64711</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>179</v>
@@ -3476,13 +3476,13 @@
         <v>200156</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3497,13 @@
         <v>145099</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3512,13 +3512,13 @@
         <v>71674</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>204</v>
@@ -3527,13 +3527,13 @@
         <v>216773</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3548,13 @@
         <v>151689</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -3563,13 +3563,13 @@
         <v>58401</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -3578,10 +3578,10 @@
         <v>210089</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>121</v>
@@ -3706,10 +3706,10 @@
         <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -3718,13 +3718,13 @@
         <v>38696</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -3733,7 +3733,7 @@
         <v>114512</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>138</v>
@@ -3784,13 +3784,13 @@
         <v>129337</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3805,13 @@
         <v>96367</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -3820,13 +3820,13 @@
         <v>33460</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -3835,13 +3835,13 @@
         <v>129827</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,7 +3897,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3909,13 +3909,13 @@
         <v>166584</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>107</v>
@@ -3924,13 +3924,13 @@
         <v>112826</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>284</v>
@@ -3939,13 +3939,13 @@
         <v>279411</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3960,13 @@
         <v>119372</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -3975,13 +3975,13 @@
         <v>87446</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>205</v>
@@ -3990,13 +3990,13 @@
         <v>206817</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,10 +4014,10 @@
         <v>72</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -4026,13 +4026,13 @@
         <v>113511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="M26" s="7">
         <v>259</v>
@@ -4041,7 +4041,7 @@
         <v>266139</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>179</v>
@@ -4253,7 +4253,7 @@
         <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4268,13 @@
         <v>502159</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H31" s="7">
         <v>258</v>
@@ -4283,13 +4283,13 @@
         <v>272875</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M31" s="7">
         <v>743</v>
@@ -4301,10 +4301,10 @@
         <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,10 +4319,10 @@
         <v>442308</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>217</v>
@@ -4340,7 +4340,7 @@
         <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>601</v>
@@ -4349,13 +4349,13 @@
         <v>630184</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,7 +4411,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4432,7 +4432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6F8E91-47DA-417B-8AEF-6917CE4164AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7FEEED-F6A9-4397-B8C6-A17DE10BB622}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4449,7 +4449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4556,13 +4556,13 @@
         <v>11661</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4571,13 +4571,13 @@
         <v>6775</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4586,13 +4586,13 @@
         <v>18436</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4607,13 @@
         <v>8882</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4622,13 +4622,13 @@
         <v>6842</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4637,13 +4637,13 @@
         <v>15724</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4658,13 @@
         <v>13283</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4676,10 +4676,10 @@
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -4688,13 +4688,13 @@
         <v>16329</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4709,13 @@
         <v>17907</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4724,13 +4724,13 @@
         <v>8524</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -4739,13 +4739,13 @@
         <v>26430</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4813,13 @@
         <v>44183</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -4828,13 +4828,13 @@
         <v>29331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -4843,13 +4843,13 @@
         <v>73515</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4864,13 @@
         <v>52626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -4879,13 +4879,13 @@
         <v>43787</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -4894,13 +4894,13 @@
         <v>96413</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4915,13 @@
         <v>75007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -4930,13 +4930,13 @@
         <v>43838</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>112</v>
@@ -4945,13 +4945,13 @@
         <v>118845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4966,13 @@
         <v>45388</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -4981,13 +4981,13 @@
         <v>19133</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>63</v>
@@ -4996,13 +4996,13 @@
         <v>64520</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5070,13 @@
         <v>88343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -5085,13 +5085,13 @@
         <v>70581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -5100,13 +5100,13 @@
         <v>158924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5121,13 @@
         <v>101666</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H15" s="7">
         <v>70</v>
@@ -5136,13 +5136,13 @@
         <v>74084</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M15" s="7">
         <v>162</v>
@@ -5151,13 +5151,13 @@
         <v>175750</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5172,13 @@
         <v>122662</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -5187,13 +5187,13 @@
         <v>71522</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>180</v>
@@ -5202,13 +5202,13 @@
         <v>194183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5223,13 @@
         <v>96037</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5238,13 +5238,13 @@
         <v>54402</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>138</v>
@@ -5253,13 +5253,13 @@
         <v>150439</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5327,13 @@
         <v>73699</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>321</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>196</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -5342,13 +5342,13 @@
         <v>56989</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -5357,13 +5357,13 @@
         <v>130687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5378,13 @@
         <v>79493</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5393,13 +5393,13 @@
         <v>48356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -5408,13 +5408,13 @@
         <v>127849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5429,13 @@
         <v>102692</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H21" s="7">
         <v>47</v>
@@ -5444,13 +5444,13 @@
         <v>53274</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M21" s="7">
         <v>138</v>
@@ -5459,13 +5459,13 @@
         <v>155966</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5480,13 @@
         <v>63496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -5495,13 +5495,13 @@
         <v>55723</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -5510,13 +5510,13 @@
         <v>119219</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,7 +5572,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5584,13 +5584,13 @@
         <v>109045</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>67</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H24" s="7">
         <v>82</v>
@@ -5599,13 +5599,13 @@
         <v>86834</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>99</v>
+        <v>361</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>362</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M24" s="7">
         <v>186</v>
@@ -5614,13 +5614,13 @@
         <v>195880</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>103</v>
+        <v>365</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5635,13 @@
         <v>106624</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5650,13 +5650,13 @@
         <v>80101</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -5665,13 +5665,13 @@
         <v>186724</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5686,13 @@
         <v>109834</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -5701,13 +5701,13 @@
         <v>62039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -5716,13 +5716,13 @@
         <v>171874</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>374</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>375</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5737,13 @@
         <v>91376</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>211</v>
+        <v>383</v>
       </c>
       <c r="H27" s="7">
         <v>72</v>
@@ -5752,13 +5752,13 @@
         <v>72529</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M27" s="7">
         <v>156</v>
@@ -5767,13 +5767,13 @@
         <v>163904</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>387</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>381</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5841,13 @@
         <v>326932</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="H29" s="7">
         <v>227</v>
@@ -5856,28 +5856,28 @@
         <v>250510</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="M29" s="7">
         <v>527</v>
       </c>
       <c r="N29" s="7">
-        <v>577443</v>
+        <v>577442</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>394</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>388</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5892,13 @@
         <v>349291</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="H30" s="7">
         <v>237</v>
@@ -5907,13 +5907,13 @@
         <v>253169</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>163</v>
+        <v>399</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>393</v>
+        <v>304</v>
       </c>
       <c r="M30" s="7">
         <v>568</v>
@@ -5922,13 +5922,13 @@
         <v>602460</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>320</v>
+        <v>401</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>395</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5943,13 @@
         <v>423478</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>102</v>
+        <v>402</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H31" s="7">
         <v>213</v>
@@ -5958,13 +5958,13 @@
         <v>233719</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="M31" s="7">
         <v>615</v>
@@ -5973,13 +5973,13 @@
         <v>657196</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +5994,13 @@
         <v>314204</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>406</v>
+        <v>163</v>
       </c>
       <c r="H32" s="7">
         <v>198</v>
@@ -6009,13 +6009,13 @@
         <v>210310</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M32" s="7">
         <v>492</v>
@@ -6024,13 +6024,13 @@
         <v>524513</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>412</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,7 +6072,7 @@
         <v>2202</v>
       </c>
       <c r="N33" s="7">
-        <v>2361612</v>
+        <v>2361611</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -6107,7 +6107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5CDE63-C61F-49A0-AB66-081D060F08C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58556E70-22B4-4677-A4A8-3A424CAD41B9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6124,7 +6124,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6231,13 +6231,13 @@
         <v>7102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>416</v>
+        <v>69</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -6246,13 +6246,13 @@
         <v>11066</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -6261,7 +6261,7 @@
         <v>18168</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>420</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>421</v>
@@ -6297,13 +6297,13 @@
         <v>5039</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>426</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -6312,13 +6312,13 @@
         <v>21253</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>114</v>
+        <v>429</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,13 +6333,13 @@
         <v>12913</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>431</v>
+        <v>156</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -6348,13 +6348,13 @@
         <v>9155</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -6363,13 +6363,13 @@
         <v>22067</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,13 +6384,13 @@
         <v>5577</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>358</v>
+        <v>442</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6399,13 +6399,13 @@
         <v>4631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -6414,13 +6414,13 @@
         <v>10208</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,13 +6488,13 @@
         <v>59853</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>202</v>
+        <v>450</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -6503,13 +6503,13 @@
         <v>47012</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>450</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M9" s="7">
         <v>105</v>
@@ -6518,13 +6518,13 @@
         <v>106865</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6539,13 @@
         <v>50276</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -6557,10 +6557,10 @@
         <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M10" s="7">
         <v>84</v>
@@ -6569,13 +6569,13 @@
         <v>84037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>462</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6590,13 @@
         <v>54589</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -6605,13 +6605,13 @@
         <v>26348</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>112</v>
+        <v>469</v>
       </c>
       <c r="M11" s="7">
         <v>81</v>
@@ -6623,10 +6623,10 @@
         <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>466</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6641,13 @@
         <v>34551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>469</v>
+        <v>232</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -6659,10 +6659,10 @@
         <v>143</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M12" s="7">
         <v>60</v>
@@ -6671,13 +6671,13 @@
         <v>64908</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>171</v>
+        <v>475</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>348</v>
+        <v>476</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6745,13 @@
         <v>132117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -6760,13 +6760,13 @@
         <v>92066</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="M14" s="7">
         <v>208</v>
@@ -6775,13 +6775,13 @@
         <v>224183</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>480</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6796,13 @@
         <v>97718</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -6811,13 +6811,13 @@
         <v>73636</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="M15" s="7">
         <v>162</v>
@@ -6826,13 +6826,13 @@
         <v>171354</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6847,13 @@
         <v>110940</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>491</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -6862,13 +6862,13 @@
         <v>61056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>496</v>
+        <v>403</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -6877,13 +6877,13 @@
         <v>171996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>498</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,13 +6898,13 @@
         <v>69633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>136</v>
+        <v>502</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -6913,13 +6913,13 @@
         <v>46032</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>506</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -6928,13 +6928,13 @@
         <v>115665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,13 +7002,13 @@
         <v>68022</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -7017,13 +7017,13 @@
         <v>63734</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>509</v>
+        <v>448</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="M19" s="7">
         <v>125</v>
@@ -7032,13 +7032,13 @@
         <v>131757</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>515</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>183</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7053,13 @@
         <v>102715</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
@@ -7068,13 +7068,13 @@
         <v>79992</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -7083,13 +7083,13 @@
         <v>182708</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7104,13 @@
         <v>96370</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="H21" s="7">
         <v>70</v>
@@ -7119,13 +7119,13 @@
         <v>72032</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>524</v>
+        <v>465</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M21" s="7">
         <v>157</v>
@@ -7134,13 +7134,13 @@
         <v>168403</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>530</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7155,13 @@
         <v>95596</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -7170,13 +7170,13 @@
         <v>54799</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>441</v>
+        <v>536</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>531</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>138</v>
@@ -7185,13 +7185,13 @@
         <v>150395</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>533</v>
+        <v>260</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,7 +7247,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7259,13 +7259,13 @@
         <v>144155</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>535</v>
+        <v>234</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>537</v>
+        <v>431</v>
       </c>
       <c r="H24" s="7">
         <v>119</v>
@@ -7274,13 +7274,13 @@
         <v>127077</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M24" s="7">
         <v>259</v>
@@ -7289,13 +7289,13 @@
         <v>271232</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7310,13 @@
         <v>81638</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -7325,13 +7325,13 @@
         <v>68288</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="M25" s="7">
         <v>144</v>
@@ -7340,13 +7340,13 @@
         <v>149926</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7361,13 @@
         <v>107796</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -7376,13 +7376,13 @@
         <v>58926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>85</v>
+        <v>446</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -7391,13 +7391,13 @@
         <v>166722</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>337</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>368</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,13 +7412,13 @@
         <v>64685</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>437</v>
+        <v>563</v>
       </c>
       <c r="H27" s="7">
         <v>63</v>
@@ -7427,13 +7427,13 @@
         <v>69180</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>144</v>
+        <v>504</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="M27" s="7">
         <v>126</v>
@@ -7442,13 +7442,13 @@
         <v>133865</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>561</v>
+        <v>356</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>470</v>
+        <v>566</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>562</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7516,13 @@
         <v>411250</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>563</v>
+        <v>386</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="H29" s="7">
         <v>334</v>
@@ -7531,13 +7531,13 @@
         <v>340955</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>443</v>
+        <v>569</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>66</v>
+        <v>570</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>130</v>
+        <v>571</v>
       </c>
       <c r="M29" s="7">
         <v>716</v>
@@ -7546,13 +7546,13 @@
         <v>752206</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,13 +7567,13 @@
         <v>348562</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>570</v>
+        <v>95</v>
       </c>
       <c r="H30" s="7">
         <v>256</v>
@@ -7582,13 +7582,13 @@
         <v>260717</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>409</v>
+        <v>169</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="M30" s="7">
         <v>582</v>
@@ -7597,13 +7597,13 @@
         <v>609279</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>163</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,13 +7618,13 @@
         <v>382608</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>577</v>
+        <v>393</v>
       </c>
       <c r="H31" s="7">
         <v>227</v>
@@ -7633,13 +7633,13 @@
         <v>227517</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>578</v>
+        <v>359</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="M31" s="7">
         <v>587</v>
@@ -7648,13 +7648,13 @@
         <v>610125</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>207</v>
+        <v>585</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>581</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>582</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,13 +7669,13 @@
         <v>270042</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>583</v>
+        <v>346</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="H32" s="7">
         <v>193</v>
@@ -7684,7 +7684,7 @@
         <v>204999</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>586</v>
+        <v>412</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>587</v>
@@ -7705,7 +7705,7 @@
         <v>590</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>547</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,7 +7761,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -7782,7 +7782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1DA117-96A0-43E6-B0C1-DA8B38E10843}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E802AE-8CA4-43F2-A7DE-871D41AE6247}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7799,7 +7799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7906,13 +7906,13 @@
         <v>4566</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>350</v>
+        <v>593</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -7921,13 +7921,13 @@
         <v>2455</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -7936,13 +7936,13 @@
         <v>7021</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>48</v>
+        <v>599</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,13 +7957,13 @@
         <v>2712</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -7972,13 +7972,13 @@
         <v>4883</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -7987,13 +7987,13 @@
         <v>7595</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,13 +8008,13 @@
         <v>15038</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -8023,13 +8023,13 @@
         <v>6956</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="M6" s="7">
         <v>21</v>
@@ -8038,13 +8038,13 @@
         <v>21994</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8059,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -8074,13 +8074,13 @@
         <v>2556</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>617</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -8089,13 +8089,13 @@
         <v>2556</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>623</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,13 +8163,13 @@
         <v>33413</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -8178,13 +8178,13 @@
         <v>21143</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -8193,13 +8193,13 @@
         <v>54556</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>507</v>
+        <v>632</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>630</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,13 +8214,13 @@
         <v>44999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>633</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -8229,13 +8229,13 @@
         <v>38164</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -8244,13 +8244,13 @@
         <v>83163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>639</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>637</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,13 +8265,13 @@
         <v>38328</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -8280,13 +8280,13 @@
         <v>31500</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>643</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>641</v>
+        <v>544</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -8295,13 +8295,13 @@
         <v>69828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>644</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8316,13 @@
         <v>35748</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>647</v>
+        <v>237</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -8331,13 +8331,13 @@
         <v>26171</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -8346,13 +8346,13 @@
         <v>61919</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8420,13 +8420,13 @@
         <v>129233</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -8435,13 +8435,13 @@
         <v>53325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>431</v>
+        <v>658</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
@@ -8450,13 +8450,13 @@
         <v>182559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8471,13 +8471,13 @@
         <v>78883</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>661</v>
+        <v>465</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H15" s="7">
         <v>103</v>
@@ -8486,13 +8486,13 @@
         <v>74511</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M15" s="7">
         <v>181</v>
@@ -8501,13 +8501,13 @@
         <v>153394</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>668</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8522,13 +8522,13 @@
         <v>118094</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -8537,13 +8537,13 @@
         <v>60173</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="M16" s="7">
         <v>188</v>
@@ -8552,13 +8552,13 @@
         <v>178267</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>675</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8573,13 +8573,13 @@
         <v>40399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>678</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -8588,13 +8588,13 @@
         <v>35920</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -8603,13 +8603,13 @@
         <v>76319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8677,13 +8677,13 @@
         <v>52677</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -8692,13 +8692,13 @@
         <v>50693</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -8707,13 +8707,13 @@
         <v>103369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>546</v>
+        <v>694</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>692</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,13 +8728,13 @@
         <v>64401</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>274</v>
+        <v>696</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -8743,13 +8743,13 @@
         <v>44503</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>695</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -8758,13 +8758,13 @@
         <v>108905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>197</v>
+        <v>701</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,13 +8779,13 @@
         <v>33302</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>343</v>
+        <v>703</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -8794,13 +8794,13 @@
         <v>23714</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>461</v>
+        <v>708</v>
       </c>
       <c r="M21" s="7">
         <v>68</v>
@@ -8809,13 +8809,13 @@
         <v>57017</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>584</v>
+        <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8830,13 +8830,13 @@
         <v>27642</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -8845,13 +8845,13 @@
         <v>35672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>186</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>709</v>
+        <v>291</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -8860,10 +8860,10 @@
         <v>63313</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>190</v>
@@ -8922,7 +8922,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8934,13 +8934,13 @@
         <v>88507</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>713</v>
+        <v>115</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="H24" s="7">
         <v>104</v>
@@ -8949,13 +8949,13 @@
         <v>76194</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>341</v>
+        <v>718</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="M24" s="7">
         <v>192</v>
@@ -8964,13 +8964,13 @@
         <v>164701</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8985,13 +8985,13 @@
         <v>55543</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>48</v>
+        <v>599</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>721</v>
+        <v>463</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -9000,13 +9000,13 @@
         <v>52761</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>723</v>
+        <v>371</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -9015,13 +9015,13 @@
         <v>108304</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>563</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9036,13 +9036,13 @@
         <v>61328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H26" s="7">
         <v>61</v>
@@ -9051,13 +9051,13 @@
         <v>44929</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>569</v>
+        <v>730</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>477</v>
+        <v>732</v>
       </c>
       <c r="M26" s="7">
         <v>122</v>
@@ -9066,13 +9066,13 @@
         <v>106257</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>472</v>
+        <v>733</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9087,13 +9087,13 @@
         <v>29583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H27" s="7">
         <v>38</v>
@@ -9102,13 +9102,13 @@
         <v>27036</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="M27" s="7">
         <v>66</v>
@@ -9117,13 +9117,13 @@
         <v>56620</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>558</v>
+        <v>741</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>737</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9191,13 +9191,13 @@
         <v>308396</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>739</v>
+        <v>95</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="H29" s="7">
         <v>269</v>
@@ -9206,13 +9206,13 @@
         <v>203810</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>741</v>
+        <v>514</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="M29" s="7">
         <v>501</v>
@@ -9221,13 +9221,13 @@
         <v>512206</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>460</v>
+        <v>747</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9242,13 +9242,13 @@
         <v>246537</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>746</v>
+        <v>409</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>747</v>
+        <v>103</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>748</v>
+        <v>374</v>
       </c>
       <c r="H30" s="7">
         <v>307</v>
@@ -9260,10 +9260,10 @@
         <v>75</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M30" s="7">
         <v>536</v>
@@ -9272,10 +9272,10 @@
         <v>461359</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>752</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>37</v>
@@ -9314,7 +9314,7 @@
         <v>757</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>354</v>
+        <v>758</v>
       </c>
       <c r="M31" s="7">
         <v>495</v>
@@ -9323,13 +9323,13 @@
         <v>433363</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>759</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9436,7 +9436,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6605-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6605-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF5BAE3E-577F-4E2B-B20D-4A3D388E7952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D496053-A125-4C44-8E1D-FD5EF03206D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDCDDAA8-D132-4A13-AC0F-EADA60EF6188}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A28BDA9E-EC65-4118-B903-BB0E9E668D03}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="757">
   <si>
     <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -77,2275 +77,2239 @@
     <t>12,09%</t>
   </si>
   <si>
-    <t>5,6%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
   <si>
     <t>24,53%</t>
   </si>
   <si>
-    <t>21,36%</t>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>13,21%</t>
   </si>
 </sst>
 </file>
@@ -2757,7 +2721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D66FD18-C3A4-4C31-8465-EF9CD932DCB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6060D9-4A99-44D0-BE19-5F95870B8DA3}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3156,10 +3120,10 @@
         <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>98</v>
@@ -3168,13 +3132,13 @@
         <v>102105</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3153,13 @@
         <v>92394</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -3204,13 +3168,13 @@
         <v>46323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -3219,13 +3183,13 @@
         <v>138718</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3204,13 @@
         <v>101901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
@@ -3255,13 +3219,13 @@
         <v>36402</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>135</v>
@@ -3270,13 +3234,13 @@
         <v>138303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3255,13 @@
         <v>63420</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -3306,13 +3270,13 @@
         <v>16689</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>77</v>
@@ -3321,13 +3285,13 @@
         <v>80109</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,7 +3347,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3395,13 +3359,13 @@
         <v>125549</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -3410,13 +3374,13 @@
         <v>72940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>177</v>
@@ -3425,13 +3389,13 @@
         <v>198489</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3410,13 @@
         <v>135444</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>59</v>
@@ -3461,13 +3425,13 @@
         <v>64711</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>179</v>
@@ -3476,13 +3440,13 @@
         <v>200156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3461,13 @@
         <v>145099</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3512,13 +3476,13 @@
         <v>71674</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>204</v>
@@ -3527,13 +3491,13 @@
         <v>216773</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3512,13 @@
         <v>151689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -3563,13 +3527,13 @@
         <v>58401</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>195</v>
@@ -3578,13 +3542,13 @@
         <v>210089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,7 +3604,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3652,13 +3616,13 @@
         <v>151742</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>96</v>
@@ -3667,13 +3631,13 @@
         <v>93050</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>235</v>
@@ -3682,13 +3646,13 @@
         <v>244792</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3667,13 @@
         <v>75816</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -3718,13 +3682,13 @@
         <v>38696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -3733,13 +3697,13 @@
         <v>114512</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3718,13 @@
         <v>82530</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>45</v>
@@ -3769,13 +3733,13 @@
         <v>46808</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>122</v>
@@ -3784,13 +3748,13 @@
         <v>129337</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3769,13 @@
         <v>96367</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -3820,13 +3784,13 @@
         <v>33460</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -3835,13 +3799,13 @@
         <v>129827</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,7 +3861,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3909,13 +3873,13 @@
         <v>166584</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>107</v>
@@ -3924,13 +3888,13 @@
         <v>112826</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>284</v>
@@ -3939,13 +3903,13 @@
         <v>279411</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3924,13 @@
         <v>119372</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>82</v>
@@ -3975,13 +3939,13 @@
         <v>87446</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>205</v>
@@ -3990,13 +3954,13 @@
         <v>206817</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +3975,13 @@
         <v>152629</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>105</v>
@@ -4026,13 +3990,13 @@
         <v>113511</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>259</v>
@@ -4041,13 +4005,13 @@
         <v>266139</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4026,13 @@
         <v>114910</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>71</v>
@@ -4077,13 +4041,13 @@
         <v>73312</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>190</v>
@@ -4092,13 +4056,13 @@
         <v>188223</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4130,13 @@
         <v>520264</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>307</v>
@@ -4181,13 +4145,13 @@
         <v>316644</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>806</v>
@@ -4196,13 +4160,13 @@
         <v>836908</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4181,13 @@
         <v>437149</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>233</v>
@@ -4232,13 +4196,13 @@
         <v>245945</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>650</v>
@@ -4247,13 +4211,13 @@
         <v>683094</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4232,13 @@
         <v>502159</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>258</v>
@@ -4283,13 +4247,13 @@
         <v>272875</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>743</v>
@@ -4298,13 +4262,13 @@
         <v>775034</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4283,13 @@
         <v>442308</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>181</v>
@@ -4334,13 +4298,13 @@
         <v>187876</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>601</v>
@@ -4349,13 +4313,13 @@
         <v>630184</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,7 +4375,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4432,7 +4396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7FEEED-F6A9-4397-B8C6-A17DE10BB622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E5E00F-9D37-463F-8EB3-A3DDE31FD6FD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4449,7 +4413,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4556,13 +4520,13 @@
         <v>11661</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4571,13 +4535,13 @@
         <v>6775</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4586,13 +4550,13 @@
         <v>18436</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4571,13 @@
         <v>8882</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4622,13 +4586,13 @@
         <v>6842</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4637,13 +4601,13 @@
         <v>15724</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4622,13 @@
         <v>13283</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4676,10 +4640,10 @@
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -4688,13 +4652,13 @@
         <v>16329</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4673,13 @@
         <v>17907</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4724,13 +4688,13 @@
         <v>8524</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -4739,13 +4703,13 @@
         <v>26430</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4777,13 @@
         <v>44183</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -4828,13 +4792,13 @@
         <v>29331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -4843,13 +4807,13 @@
         <v>73515</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4828,13 @@
         <v>52626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -4879,13 +4843,13 @@
         <v>43787</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -4894,13 +4858,13 @@
         <v>96413</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4879,13 @@
         <v>75007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -4930,13 +4894,13 @@
         <v>43838</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>112</v>
@@ -4945,13 +4909,13 @@
         <v>118845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4930,13 @@
         <v>45388</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -4981,13 +4945,13 @@
         <v>19133</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>287</v>
+        <v>86</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>289</v>
+        <v>186</v>
       </c>
       <c r="M12" s="7">
         <v>63</v>
@@ -4996,13 +4960,13 @@
         <v>64520</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,7 +5022,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5070,13 +5034,13 @@
         <v>88343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -5085,13 +5049,13 @@
         <v>70581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>141</v>
@@ -5100,13 +5064,13 @@
         <v>158924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5085,13 @@
         <v>101666</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H15" s="7">
         <v>70</v>
@@ -5136,13 +5100,13 @@
         <v>74084</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M15" s="7">
         <v>162</v>
@@ -5151,13 +5115,13 @@
         <v>175750</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>308</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5136,13 @@
         <v>122662</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -5187,13 +5151,13 @@
         <v>71522</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>180</v>
@@ -5202,13 +5166,13 @@
         <v>194183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5187,13 @@
         <v>96037</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5238,13 +5202,13 @@
         <v>54402</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M17" s="7">
         <v>138</v>
@@ -5253,13 +5217,13 @@
         <v>150439</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5279,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5327,13 +5291,13 @@
         <v>73699</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>186</v>
+        <v>328</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>329</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>196</v>
+        <v>330</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -5342,7 +5306,7 @@
         <v>56989</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>331</v>
@@ -5357,13 +5321,13 @@
         <v>130687</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>333</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5342,13 @@
         <v>79493</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -5393,13 +5357,13 @@
         <v>48356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -5408,13 +5372,13 @@
         <v>127849</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5393,13 @@
         <v>102692</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H21" s="7">
         <v>47</v>
@@ -5444,13 +5408,13 @@
         <v>53274</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M21" s="7">
         <v>138</v>
@@ -5459,13 +5423,13 @@
         <v>155966</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5444,13 @@
         <v>63496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>351</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -5572,7 +5536,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5590,7 +5554,7 @@
         <v>359</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>360</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>82</v>
@@ -5599,13 +5563,13 @@
         <v>86834</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M24" s="7">
         <v>186</v>
@@ -5614,13 +5578,13 @@
         <v>195880</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5599,13 @@
         <v>106624</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H25" s="7">
         <v>76</v>
@@ -5650,13 +5614,13 @@
         <v>80101</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -5665,13 +5629,13 @@
         <v>186724</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5650,13 @@
         <v>109834</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -5701,13 +5665,13 @@
         <v>62039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -5716,13 +5680,13 @@
         <v>171874</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>113</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5701,13 @@
         <v>91376</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H27" s="7">
         <v>72</v>
@@ -5752,13 +5716,13 @@
         <v>72529</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>384</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M27" s="7">
         <v>156</v>
@@ -5767,13 +5731,13 @@
         <v>163904</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5805,13 @@
         <v>326932</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H29" s="7">
         <v>227</v>
@@ -5856,28 +5820,28 @@
         <v>250510</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M29" s="7">
         <v>527</v>
       </c>
       <c r="N29" s="7">
-        <v>577442</v>
+        <v>577443</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>59</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5856,13 @@
         <v>349291</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>398</v>
+        <v>177</v>
       </c>
       <c r="H30" s="7">
         <v>237</v>
@@ -5907,13 +5871,13 @@
         <v>253169</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>304</v>
+        <v>398</v>
       </c>
       <c r="M30" s="7">
         <v>568</v>
@@ -5922,13 +5886,13 @@
         <v>602460</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,10 +5940,10 @@
         <v>408</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +5958,13 @@
         <v>314204</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H32" s="7">
         <v>198</v>
@@ -6009,10 +5973,10 @@
         <v>210310</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>414</v>
@@ -6024,13 +5988,13 @@
         <v>524513</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,7 +6036,7 @@
         <v>2202</v>
       </c>
       <c r="N33" s="7">
-        <v>2361611</v>
+        <v>2361612</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -6086,7 +6050,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -6107,7 +6071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58556E70-22B4-4677-A4A8-3A424CAD41B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B632D4-C44F-466F-A84B-1C24A9B6F449}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6124,7 +6088,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6231,13 +6195,13 @@
         <v>7102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>418</v>
+        <v>243</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>69</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -6249,7 +6213,7 @@
         <v>419</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>397</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>420</v>
@@ -6261,13 +6225,13 @@
         <v>18168</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>312</v>
+        <v>421</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>422</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,10 +6264,10 @@
         <v>426</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -6312,13 +6276,13 @@
         <v>21253</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,13 +6297,13 @@
         <v>12913</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -6348,13 +6312,13 @@
         <v>9155</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -6363,13 +6327,13 @@
         <v>22067</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,13 +6348,13 @@
         <v>5577</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6399,13 +6363,13 @@
         <v>4631</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -6414,13 +6378,13 @@
         <v>10208</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,13 +6452,13 @@
         <v>59853</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H9" s="7">
         <v>49</v>
@@ -6503,10 +6467,10 @@
         <v>47012</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>453</v>
@@ -6521,10 +6485,10 @@
         <v>454</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6503,13 @@
         <v>50276</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -6557,10 +6521,10 @@
         <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="M10" s="7">
         <v>84</v>
@@ -6569,7 +6533,7 @@
         <v>84037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>461</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>462</v>
@@ -6590,13 +6554,13 @@
         <v>54589</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -6605,13 +6569,13 @@
         <v>26348</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M11" s="7">
         <v>81</v>
@@ -6620,13 +6584,13 @@
         <v>80936</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6605,13 @@
         <v>34551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -6656,13 +6620,13 @@
         <v>30357</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M12" s="7">
         <v>60</v>
@@ -6671,13 +6635,13 @@
         <v>64908</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>475</v>
+        <v>90</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,7 +6697,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6745,13 +6709,13 @@
         <v>132117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>479</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -6760,13 +6724,13 @@
         <v>92066</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>482</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M14" s="7">
         <v>208</v>
@@ -6775,13 +6739,13 @@
         <v>224183</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>480</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6760,13 @@
         <v>97718</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>488</v>
+        <v>215</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -6811,13 +6775,13 @@
         <v>73636</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>489</v>
+        <v>170</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>490</v>
+        <v>147</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="M15" s="7">
         <v>162</v>
@@ -6826,13 +6790,13 @@
         <v>171354</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>493</v>
+        <v>280</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6811,13 @@
         <v>110940</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>487</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -6862,13 +6826,13 @@
         <v>61056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>403</v>
+        <v>492</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -6877,13 +6841,13 @@
         <v>171996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>494</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,13 +6862,13 @@
         <v>69633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -6913,13 +6877,13 @@
         <v>46032</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -6928,13 +6892,13 @@
         <v>115665</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,7 +6954,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7002,13 +6966,13 @@
         <v>68022</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -7017,13 +6981,13 @@
         <v>63734</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>514</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
         <v>125</v>
@@ -7032,13 +6996,13 @@
         <v>131757</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7017,13 @@
         <v>102715</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H20" s="7">
         <v>79</v>
@@ -7068,13 +7032,13 @@
         <v>79992</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>520</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>522</v>
+        <v>64</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -7083,13 +7047,13 @@
         <v>182708</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7068,13 @@
         <v>96370</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H21" s="7">
         <v>70</v>
@@ -7119,13 +7083,13 @@
         <v>72032</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="M21" s="7">
         <v>157</v>
@@ -7134,13 +7098,13 @@
         <v>168403</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7119,13 @@
         <v>95596</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H22" s="7">
         <v>53</v>
@@ -7170,13 +7134,13 @@
         <v>54799</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>529</v>
       </c>
       <c r="M22" s="7">
         <v>138</v>
@@ -7185,13 +7149,13 @@
         <v>150395</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>537</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>260</v>
+        <v>530</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,7 +7211,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7259,13 +7223,13 @@
         <v>144155</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>234</v>
+        <v>532</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>431</v>
+        <v>534</v>
       </c>
       <c r="H24" s="7">
         <v>119</v>
@@ -7274,13 +7238,13 @@
         <v>127077</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M24" s="7">
         <v>259</v>
@@ -7289,13 +7253,13 @@
         <v>271232</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7274,13 @@
         <v>81638</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>548</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -7325,13 +7289,13 @@
         <v>68288</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>551</v>
+        <v>373</v>
       </c>
       <c r="M25" s="7">
         <v>144</v>
@@ -7340,13 +7304,13 @@
         <v>149926</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>220</v>
+        <v>545</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7325,13 @@
         <v>107796</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H26" s="7">
         <v>59</v>
@@ -7376,13 +7340,13 @@
         <v>58926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>552</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -7391,13 +7355,13 @@
         <v>166722</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>555</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,13 +7376,13 @@
         <v>64685</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H27" s="7">
         <v>63</v>
@@ -7427,13 +7391,13 @@
         <v>69180</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>504</v>
+        <v>426</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M27" s="7">
         <v>126</v>
@@ -7442,13 +7406,13 @@
         <v>133865</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>356</v>
+        <v>562</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7480,13 @@
         <v>411250</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>386</v>
+        <v>564</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H29" s="7">
         <v>334</v>
@@ -7531,13 +7495,13 @@
         <v>340955</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="M29" s="7">
         <v>716</v>
@@ -7546,13 +7510,13 @@
         <v>752206</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,13 +7531,13 @@
         <v>348562</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>548</v>
+        <v>412</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>575</v>
+        <v>490</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>95</v>
+        <v>573</v>
       </c>
       <c r="H30" s="7">
         <v>256</v>
@@ -7582,13 +7546,13 @@
         <v>260717</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M30" s="7">
         <v>582</v>
@@ -7597,13 +7561,13 @@
         <v>609279</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>580</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,13 +7582,13 @@
         <v>382608</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>582</v>
+        <v>55</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>393</v>
+        <v>579</v>
       </c>
       <c r="H31" s="7">
         <v>227</v>
@@ -7633,13 +7597,13 @@
         <v>227517</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>359</v>
+        <v>580</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>583</v>
+        <v>25</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>584</v>
+        <v>55</v>
       </c>
       <c r="M31" s="7">
         <v>587</v>
@@ -7648,13 +7612,13 @@
         <v>610125</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>585</v>
+        <v>206</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>386</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,13 +7633,13 @@
         <v>270042</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>346</v>
+        <v>84</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="H32" s="7">
         <v>193</v>
@@ -7684,13 +7648,13 @@
         <v>204999</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>412</v>
+        <v>584</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>588</v>
+        <v>175</v>
       </c>
       <c r="M32" s="7">
         <v>439</v>
@@ -7699,13 +7663,13 @@
         <v>475041</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>591</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,7 +7725,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7782,7 +7746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E802AE-8CA4-43F2-A7DE-871D41AE6247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82641A28-B618-481D-A1D6-880FCAC7C403}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7799,7 +7763,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7906,13 +7870,13 @@
         <v>4566</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -7921,13 +7885,13 @@
         <v>2455</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>598</v>
+        <v>354</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -7936,13 +7900,13 @@
         <v>7021</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>599</v>
+        <v>28</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>601</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,13 +7921,13 @@
         <v>2712</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -7972,13 +7936,13 @@
         <v>4883</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -7987,13 +7951,13 @@
         <v>7595</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,13 +7972,13 @@
         <v>15038</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -8023,13 +7987,13 @@
         <v>6956</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="M6" s="7">
         <v>21</v>
@@ -8038,13 +8002,13 @@
         <v>21994</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8023,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -8074,13 +8038,13 @@
         <v>2556</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -8089,13 +8053,13 @@
         <v>2556</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,13 +8127,13 @@
         <v>33413</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -8178,13 +8142,13 @@
         <v>21143</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="M9" s="7">
         <v>47</v>
@@ -8193,13 +8157,13 @@
         <v>54556</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,13 +8178,13 @@
         <v>44999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>634</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -8229,13 +8193,13 @@
         <v>38164</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -8244,13 +8208,13 @@
         <v>83163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>428</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,13 +8229,13 @@
         <v>38328</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>641</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -8280,13 +8244,13 @@
         <v>31500</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>544</v>
+        <v>451</v>
       </c>
       <c r="M11" s="7">
         <v>96</v>
@@ -8295,13 +8259,13 @@
         <v>69828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>568</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8280,13 @@
         <v>35748</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>647</v>
+        <v>117</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>237</v>
+        <v>641</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -8331,13 +8295,13 @@
         <v>26171</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="M12" s="7">
         <v>61</v>
@@ -8346,13 +8310,13 @@
         <v>61919</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8408,7 +8372,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8420,13 +8384,13 @@
         <v>129233</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>656</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -8435,13 +8399,13 @@
         <v>53325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
@@ -8450,13 +8414,13 @@
         <v>182559</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8471,13 +8435,13 @@
         <v>78883</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>465</v>
+        <v>654</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="H15" s="7">
         <v>103</v>
@@ -8486,13 +8450,13 @@
         <v>74511</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>666</v>
+        <v>92</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="M15" s="7">
         <v>181</v>
@@ -8501,13 +8465,13 @@
         <v>153394</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>668</v>
+        <v>71</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>670</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8522,13 +8486,13 @@
         <v>118094</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -8537,13 +8501,13 @@
         <v>60173</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="M16" s="7">
         <v>188</v>
@@ -8552,13 +8516,13 @@
         <v>178267</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8573,13 +8537,13 @@
         <v>40399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -8588,13 +8552,13 @@
         <v>35920</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -8603,13 +8567,13 @@
         <v>76319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8665,7 +8629,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8677,13 +8641,13 @@
         <v>52677</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="H19" s="7">
         <v>70</v>
@@ -8692,13 +8656,13 @@
         <v>50693</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="M19" s="7">
         <v>118</v>
@@ -8707,13 +8671,13 @@
         <v>103369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>694</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,13 +8692,13 @@
         <v>64401</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -8743,13 +8707,13 @@
         <v>44503</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>687</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>698</v>
+        <v>494</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -8758,13 +8722,13 @@
         <v>108905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,13 +8743,13 @@
         <v>33302</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>705</v>
+        <v>324</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -8794,13 +8758,13 @@
         <v>23714</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="M21" s="7">
         <v>68</v>
@@ -8809,13 +8773,13 @@
         <v>57017</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>117</v>
+        <v>697</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>709</v>
+        <v>439</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8830,13 +8794,13 @@
         <v>27642</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>711</v>
+        <v>351</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>713</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -8845,13 +8809,13 @@
         <v>35672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>186</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>540</v>
+        <v>700</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -8860,13 +8824,13 @@
         <v>63313</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>190</v>
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8922,7 +8886,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8934,13 +8898,13 @@
         <v>88507</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>115</v>
+        <v>521</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="H24" s="7">
         <v>104</v>
@@ -8949,13 +8913,13 @@
         <v>76194</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="M24" s="7">
         <v>192</v>
@@ -8964,13 +8928,13 @@
         <v>164701</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8985,13 +8949,13 @@
         <v>55543</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>599</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>463</v>
+        <v>713</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -9000,13 +8964,13 @@
         <v>52761</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>725</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>371</v>
+        <v>714</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -9015,13 +8979,13 @@
         <v>108304</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>386</v>
+        <v>716</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9036,13 +9000,13 @@
         <v>61328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="H26" s="7">
         <v>61</v>
@@ -9051,13 +9015,13 @@
         <v>44929</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="M26" s="7">
         <v>122</v>
@@ -9066,13 +9030,13 @@
         <v>106257</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>735</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9087,13 +9051,13 @@
         <v>29583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>736</v>
+        <v>558</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>653</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7">
         <v>38</v>
@@ -9102,13 +9066,13 @@
         <v>27036</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="M27" s="7">
         <v>66</v>
@@ -9117,13 +9081,13 @@
         <v>56620</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9191,13 +9155,13 @@
         <v>308396</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="H29" s="7">
         <v>269</v>
@@ -9206,13 +9170,13 @@
         <v>203810</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>514</v>
+        <v>733</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>745</v>
+        <v>399</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="M29" s="7">
         <v>501</v>
@@ -9221,13 +9185,13 @@
         <v>512206</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9242,13 +9206,13 @@
         <v>246537</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>409</v>
+        <v>738</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>103</v>
+        <v>520</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>374</v>
+        <v>739</v>
       </c>
       <c r="H30" s="7">
         <v>307</v>
@@ -9257,13 +9221,13 @@
         <v>214822</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>750</v>
+        <v>92</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="M30" s="7">
         <v>536</v>
@@ -9272,13 +9236,13 @@
         <v>461359</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>391</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>37</v>
+        <v>742</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9293,13 +9257,13 @@
         <v>266089</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="H31" s="7">
         <v>237</v>
@@ -9308,13 +9272,13 @@
         <v>167274</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>758</v>
+        <v>581</v>
       </c>
       <c r="M31" s="7">
         <v>495</v>
@@ -9323,13 +9287,13 @@
         <v>433363</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>482</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9344,13 +9308,13 @@
         <v>133372</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="H32" s="7">
         <v>148</v>
@@ -9359,13 +9323,13 @@
         <v>127355</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="M32" s="7">
         <v>261</v>
@@ -9374,13 +9338,13 @@
         <v>260727</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>768</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9436,7 +9400,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
